--- a/biology/Botanique/Fernand_Rabier_(rose)/Fernand_Rabier_(rose).xlsx
+++ b/biology/Botanique/Fernand_Rabier_(rose)/Fernand_Rabier_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Fernand Rabier' est un cultivar de rosier grimpant obtenu en 1918 à Orléans par Eugène Turbat[1], issu de Rosa wichuraiana[2]. Il est dédié à Fernand Rabier (1855-1933), ancien et futur maire d'Orléans et futur sénateur du Loiret radical-socialiste, à l'époque de son obtention.
+'Fernand Rabier' est un cultivar de rosier grimpant obtenu en 1918 à Orléans par Eugène Turbat, issu de Rosa wichuraiana. Il est dédié à Fernand Rabier (1855-1933), ancien et futur maire d'Orléans et futur sénateur du Loiret radical-socialiste, à l'époque de son obtention.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier grimpant au port souple de 3 à 4 mètres[3] se couvre en juin de fleurs pleines (17-25 pétales) en bouquets de couleur écarlate. Elles sont très légèrement parfumées. Sa zone de rusticité est de 6b à 9b[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier grimpant au port souple de 3 à 4 mètres se couvre en juin de fleurs pleines (17-25 pétales) en bouquets de couleur écarlate. Elles sont très légèrement parfumées. Sa zone de rusticité est de 6b à 9b.
 On peut l'admirer à la roseraie Jean-Dupont, située à Orléans, qui sert de conservatoire des roses obtenues dans l'Orléanais.
-Il est issu de 'Delight' (hybride de Rosa wichuraiana) et d'un semis inconnu[4].
+Il est issu de 'Delight' (hybride de Rosa wichuraiana) et d'un semis inconnu.
 </t>
         </is>
       </c>
